--- a/data/population/0066_202307.xlsx
+++ b/data/population/0066_202307.xlsx
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:AW236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26365,13 +26365,13 @@
         <v>385</v>
       </c>
       <c r="H168" s="5">
-        <v>8146</v>
+        <v>8147</v>
       </c>
       <c r="I168" s="5">
         <v>3883</v>
       </c>
       <c r="J168" s="5">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="K168" s="5">
         <v>144</v>
